--- a/reports/report_20.04.2025 20.07.2025.xlsx
+++ b/reports/report_20.04.2025 20.07.2025.xlsx
@@ -449,8 +449,8 @@
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,12 +471,12 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
+          <t>Дата создания</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
           <t>Чек</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Дата создания</t>
         </is>
       </c>
     </row>
@@ -494,15 +494,15 @@
           <t>Шашлык Утка - Шашлык Баранина</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
+        <v>45819.6203125</v>
+      </c>
+      <c r="E2" t="n">
         <v>3800</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>45819.6203125</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3800</v>
       </c>
     </row>
